--- a/biology/Zoologie/Geai_de_Santa_Cruz/Geai_de_Santa_Cruz.xlsx
+++ b/biology/Zoologie/Geai_de_Santa_Cruz/Geai_de_Santa_Cruz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aphelocoma insularis
 Le Geai de Santa Cruz (Aphelocoma insularis) est une espèce de passereau de la famille des Corvidae. Il est endémique de l'île de Santa Cruz au large de la côte sud de la Californie. 
